--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>864310.1352453924</v>
+        <v>863352.6855847038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584668</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,19 +747,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>85.31372784089211</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>149.2992955570995</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>34.66067414728059</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>191.5193594599731</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>153.2007667106818</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3565097727587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>184.2711551363581</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -1664,16 +1664,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>84.39667687384427</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>29.34281600071414</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -1816,7 +1816,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>117.889549819912</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>66.23167121454985</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>53.40708194790152</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9216174196134</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>326.2575215723778</v>
       </c>
       <c r="E20" t="n">
-        <v>379.0725179312301</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>152.3002292039013</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,25 +2318,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>45.08916293998425</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>293.0249516931594</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>94.06259899123577</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.41754251185411</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.85902049227424</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>317.9009380000316</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2643,13 +2643,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>36.29588146532153</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3565097727587</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>30.53482036979254</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>299.2527115533157</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>340.4422929262589</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>95.66135751783794</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2925,7 +2925,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.30614440140137</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>43.35606979968811</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>177.0019898661705</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>139.9946131672366</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>24.6481577642671</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571424</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>53.92880121529058</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.8178937557842</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.697369306513564</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>25.84866195017812</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>209.0621118807427</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3348,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>102.4376743759848</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>15.69638162143966</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.6194376234954</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>60.24774373608148</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.54798812758653</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>121.393646812485</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.0823652432665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>113.1507170764644</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>138.854596704958</v>
+        <v>13.10885323925808</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>6.45683482408856</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3907,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>58.50987888687372</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>50.39085407108831</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>280.9556817936961</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>269.41479365998</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>27.02401093552155</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4119,10 +4119,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.2545797368263</v>
       </c>
     </row>
     <row r="46">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.57056692594167</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>105.4566257777805</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4566257777805</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>105.4566257777805</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>105.4566257777805</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4419,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>813.2497862610408</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W6" t="n">
-        <v>569.8010096169406</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X6" t="n">
-        <v>361.9495094114078</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4823,28 +4823,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W8" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
         <v>19.28114311021272</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.04605772994853</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>55.04605772994853</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>55.04605772994853</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4951,10 +4951,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.3488948860615</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="C11" t="n">
-        <v>240.3488948860615</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D11" t="n">
-        <v>240.3488948860615</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E11" t="n">
-        <v>240.3488948860615</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>240.3488948860615</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
         <v>46.89499644164432</v>
@@ -5042,10 +5042,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5069,22 +5069,22 @@
         <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>1941.571949851771</v>
+        <v>2006.806460017483</v>
       </c>
       <c r="U11" t="n">
-        <v>1687.785527736638</v>
+        <v>2006.806460017483</v>
       </c>
       <c r="V11" t="n">
-        <v>1356.722640393067</v>
+        <v>2006.806460017483</v>
       </c>
       <c r="W11" t="n">
-        <v>1003.953985122953</v>
+        <v>2006.806460017483</v>
       </c>
       <c r="X11" t="n">
-        <v>630.4882268618733</v>
+        <v>2006.806460017483</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.3488948860615</v>
+        <v>2006.806460017483</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5121,7 +5121,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
         <v>705.6153558007836</v>
@@ -5130,40 +5130,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5221,28 +5221,28 @@
         <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>566.78431370192</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>566.78431370192</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.89499644164432</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="C14" t="n">
-        <v>46.89499644164432</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="D14" t="n">
-        <v>46.89499644164432</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5312,16 +5312,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>1282.349095302096</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W14" t="n">
-        <v>1197.099926742658</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X14" t="n">
-        <v>823.6341684815778</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y14" t="n">
-        <v>433.4948365057661</v>
+        <v>1613.411982645667</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5358,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
         <v>705.6153558007836</v>
@@ -5379,16 +5379,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V15" t="n">
         <v>1826.94371292353</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5464,22 +5464,22 @@
         <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9753497950908</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9753497950908</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E17" t="n">
         <v>46.89499644164432</v>
@@ -5516,13 +5516,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5549,16 +5549,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>397.8481307740132</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>247.7314913616774</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>247.7314913616774</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>100.8415438637671</v>
       </c>
       <c r="G19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5692,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S19" t="n">
-        <v>236.7148120170114</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>566.78431370192</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.010650042283</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C20" t="n">
-        <v>1199.048133101871</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="D20" t="n">
-        <v>840.7824344951207</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5753,10 +5753,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1954.610490106405</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>221.6448824165167</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5874,7 +5874,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
         <v>46.89499644164432</v>
@@ -5947,13 +5947,13 @@
         <v>163.1743251005163</v>
       </c>
       <c r="W22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.485530376898</v>
+        <v>1618.515408551023</v>
       </c>
       <c r="C23" t="n">
-        <v>1307.485530376898</v>
+        <v>1249.552891610611</v>
       </c>
       <c r="D23" t="n">
-        <v>1261.940921346611</v>
+        <v>1249.552891610611</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>1249.552891610611</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>838.5669868210036</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6011,28 +6011,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.62486235271</v>
+        <v>1991.981166812103</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.62486235271</v>
+        <v>1618.515408551023</v>
       </c>
       <c r="Y23" t="n">
-        <v>1307.485530376898</v>
+        <v>1618.515408551023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>288.4422806685329</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>141.9077226954178</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
         <v>273.1268607498447</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.0945343324061</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="C25" t="n">
-        <v>125.0945343324061</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>125.0945343324061</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>125.0945343324061</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>125.0945343324061</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
         <v>46.89499644164432</v>
@@ -6172,25 +6172,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V25" t="n">
-        <v>353.0840852304234</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W25" t="n">
-        <v>353.0840852304234</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="X25" t="n">
-        <v>125.0945343324061</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.0945343324061</v>
+        <v>163.1743251005163</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.89499644164434</v>
+        <v>900.8526811433298</v>
       </c>
       <c r="C26" t="n">
-        <v>46.89499644164434</v>
+        <v>900.8526811433298</v>
       </c>
       <c r="D26" t="n">
-        <v>46.89499644164434</v>
+        <v>542.5869825365794</v>
       </c>
       <c r="E26" t="n">
-        <v>46.89499644164434</v>
+        <v>542.5869825365794</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164434</v>
+        <v>131.6010777469718</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.902094927568</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244555</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6245,31 +6245,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q26" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1870.980640598662</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1549.868582012772</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W26" t="n">
-        <v>1197.099926742658</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X26" t="n">
-        <v>823.6341684815778</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y26" t="n">
-        <v>433.4948365057661</v>
+        <v>1287.452521207452</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>850.7918407605289</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>676.3388114794019</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>527.4044018181506</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>368.1669468126951</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>221.6323888395801</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G27" t="n">
-        <v>83.55750297227215</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
         <v>276.0646041288937</v>
@@ -6321,34 +6321,34 @@
         <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082217</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2183.516266982772</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1755.79310469096</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1266.403639731016</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1058.552139525483</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.7918407605289</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G28" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H28" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702978</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200978</v>
@@ -6403,31 +6403,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>566.78431370192</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S28" t="n">
-        <v>566.78431370192</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="U28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="V28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="W28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y28" t="n">
-        <v>566.78431370192</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>349.1704626571147</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="C29" t="n">
-        <v>349.1704626571147</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="D29" t="n">
-        <v>349.1704626571147</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E29" t="n">
-        <v>349.1704626571147</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1796.607095507691</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V29" t="n">
-        <v>1465.54420816412</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W29" t="n">
-        <v>1112.775552894006</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X29" t="n">
-        <v>739.3097946329265</v>
+        <v>556.114681770903</v>
       </c>
       <c r="Y29" t="n">
-        <v>349.1704626571147</v>
+        <v>212.2335778049849</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>910.756968086303</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>736.303938805176</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>587.3695291439248</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E30" t="n">
-        <v>428.1320741384692</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F30" t="n">
-        <v>281.5975161653543</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>143.5226302980463</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1983.973569036802</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1748.821460805059</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1494.584104076858</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1286.732603871325</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1078.972305106371</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
         <v>1783.87624508755</v>
@@ -6643,28 +6643,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>2190.391887156797</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>1973.696060662917</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.992884499886</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U31" t="n">
-        <v>1933.992884499886</v>
+        <v>1827.670254986225</v>
       </c>
       <c r="V31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>1933.992884499886</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1261.940921346611</v>
+        <v>1107.160328482895</v>
       </c>
       <c r="C32" t="n">
-        <v>1261.940921346611</v>
+        <v>1107.160328482895</v>
       </c>
       <c r="D32" t="n">
-        <v>1261.940921346611</v>
+        <v>1107.160328482895</v>
       </c>
       <c r="E32" t="n">
-        <v>876.152668748367</v>
+        <v>721.3720758846512</v>
       </c>
       <c r="F32" t="n">
-        <v>465.1667639587595</v>
+        <v>721.3720758846512</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164434</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164434</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164434</v>
@@ -6728,22 +6728,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>1945.772463960296</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U32" t="n">
-        <v>1945.772463960296</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V32" t="n">
-        <v>1614.709576616725</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="W32" t="n">
-        <v>1261.940921346611</v>
+        <v>1480.626086743975</v>
       </c>
       <c r="X32" t="n">
-        <v>1261.940921346611</v>
+        <v>1107.160328482895</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.940921346611</v>
+        <v>1107.160328482895</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551158</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739888</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127376</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072821</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6777,52 +6777,52 @@
         <v>46.89499644164434</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164434</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832907</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082217</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082217</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082217</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082217</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T33" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751839</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>386.9759942927801</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="C34" t="n">
-        <v>218.0398113648732</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="D34" t="n">
-        <v>67.92317195253747</v>
+        <v>48.60951089266814</v>
       </c>
       <c r="E34" t="n">
-        <v>67.92317195253747</v>
+        <v>48.60951089266814</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164434</v>
+        <v>48.60951089266814</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164434</v>
@@ -6880,28 +6880,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363102</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.9759942927801</v>
+        <v>198.7261503050039</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>988.7710439288505</v>
+        <v>1397.949618983301</v>
       </c>
       <c r="C35" t="n">
-        <v>988.7710439288505</v>
+        <v>1397.949618983301</v>
       </c>
       <c r="D35" t="n">
-        <v>630.5053453221001</v>
+        <v>1397.949618983301</v>
       </c>
       <c r="E35" t="n">
-        <v>630.5053453221001</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F35" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
         <v>212.2335778049849</v>
@@ -6938,13 +6938,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U35" t="n">
-        <v>2059.202426606657</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V35" t="n">
-        <v>1728.139539263086</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W35" t="n">
-        <v>1375.370883992972</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.370883992972</v>
+        <v>1788.088950959112</v>
       </c>
       <c r="Y35" t="n">
-        <v>1375.370883992972</v>
+        <v>1397.949618983301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>829.9842651606482</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>655.5312358795212</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>506.5968262182699</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E36" t="n">
-        <v>347.3593712128144</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F36" t="n">
-        <v>200.8248132396994</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G36" t="n">
-        <v>62.74992737239145</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
         <v>46.89499644164432</v>
@@ -7017,22 +7017,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7056,10 +7056,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.95990094567</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.1996021807163</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7114,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S37" t="n">
-        <v>391.0727469424309</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T37" t="n">
-        <v>163.1743251005163</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="U37" t="n">
-        <v>163.1743251005163</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="V37" t="n">
-        <v>163.1743251005163</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="W37" t="n">
-        <v>163.1743251005163</v>
+        <v>49.46872182304486</v>
       </c>
       <c r="X37" t="n">
-        <v>102.3180182963936</v>
+        <v>49.46872182304486</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="C38" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="D38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7172,13 +7172,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7217,7 +7217,7 @@
         <v>556.1146817709025</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.243605767603</v>
+        <v>556.1146817709025</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7263,7 +7263,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7281,22 +7281,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.36185250133229</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>90.36185250133229</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>318.3514033993496</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X40" t="n">
-        <v>90.36185250133229</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.36185250133229</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>556.1146817709025</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C41" t="n">
-        <v>187.1521648304908</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D41" t="n">
-        <v>187.1521648304908</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E41" t="n">
-        <v>187.1521648304908</v>
+        <v>808.7566391829587</v>
       </c>
       <c r="F41" t="n">
-        <v>187.1521648304908</v>
+        <v>808.7566391829587</v>
       </c>
       <c r="G41" t="n">
-        <v>187.1521648304908</v>
+        <v>390.4848716658435</v>
       </c>
       <c r="H41" t="n">
-        <v>187.1521648304908</v>
+        <v>60.13626233988481</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7433,28 +7433,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>556.1146817709025</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y41" t="n">
-        <v>556.1146817709025</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>682.5765037404603</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>508.1234744593334</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>359.1890647980821</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>199.9516097926266</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>53.41705181951156</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>53.41705181951156</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
-        <v>53.41705181951156</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7500,40 +7500,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U42" t="n">
-        <v>1755.793104690959</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V42" t="n">
-        <v>1520.640996459217</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1266.403639731015</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>1058.552139525482</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.7918407605284</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>460.8786259383999</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7600,19 +7600,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1253.621336413444</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="C44" t="n">
-        <v>1253.621336413444</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D44" t="n">
-        <v>895.3556378066935</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>895.3556378066935</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>484.3697330170859</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>484.3697330170859</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7676,22 +7676,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.686934738646</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.686934738646</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.221176477566</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="Y44" t="n">
-        <v>1640.221176477566</v>
+        <v>1518.211985328548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D45" t="n">
-        <v>420.3827549310373</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E45" t="n">
-        <v>261.1452999255818</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>114.6107419524668</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365.947818781887</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>197.0116358539801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7837,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>547.5962836121267</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509598</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579836</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q27" t="n">
         <v>57.0889669861391</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574067</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10911,10 +10911,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O39" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>101.9014378473433</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151.8593460673979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22589,16 +22589,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,19 +22635,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.082905010522964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22920,7 +22920,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>83.50129159232577</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23072,22 +23072,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13252716541155</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>138.0478248410352</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,22 +23151,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,13 +23191,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>222.5696903819709</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>64.58216506405569</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23346,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.090051078196922</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>170.4118864843248</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>264.8442918435687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>203.4577711487111</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288915</v>
+        <v>46.59991698252628</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>236.793491800771</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>261.520587255585</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>114.0394789030541</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>37.69782020388197</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>28.42552004830515</v>
       </c>
       <c r="E20" t="n">
-        <v>2.857852141031685</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24054,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>53.38246657340304</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>31.31742727428588</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>171.4064629643077</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,25 +24206,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>309.5938786806987</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>121.0640981487845</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24269,10 +24269,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>42.63153801739909</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>52.13028572634454</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>90.02901833910151</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
         <v>157.3867970498209</v>
@@ -24412,22 +24412,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,16 +24446,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>330.2300293496697</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24494,13 +24494,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>9.851320470103303</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24531,13 +24531,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>69.6679175940879</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571424</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.090051078196922</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>195.0846172537028</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>107.6233341883957</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -24698,7 +24698,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>45.79564572979473</v>
       </c>
     </row>
     <row r="30">
@@ -24762,22 +24762,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10.30244154157148</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,19 +24883,19 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>186.313293222094</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241399</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,16 +24926,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>237.0870599757735</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,19 +24968,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>77.78831860750086</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25005,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>120.4210546291168</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>143.618469751219</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>124.603154267147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>165.7491915444421</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25120,7 +25120,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25132,7 +25132,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>356.0817081220837</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>42.18644601323851</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25236,19 +25236,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>45.00739118865395</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>90.26741743796977</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571424</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>165.4619116529557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0366652245083</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>233.2893948081979</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25406,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.1555734127871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>53.38246657340292</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25482,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,10 +25521,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>137.1803309947772</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>105.5832855191213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.83059884474918</v>
+        <v>150.5763423104491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25719,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>60.58175323162568</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25795,19 +25795,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.9366819640819</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>175.3188013179488</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>84.31720997731145</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>57.63032957271912</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25916,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,10 +26007,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>30.42811604047807</v>
       </c>
     </row>
     <row r="46">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,19 +26077,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.0140864261531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457358.664076667</v>
+        <v>457358.6640766671</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695787.3348918783</v>
+        <v>695787.3348918785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695787.3348918783</v>
+        <v>695787.3348918785</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695787.3348918783</v>
+        <v>695787.3348918785</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695787.3348918783</v>
+        <v>695787.3348918784</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695787.3348918785</v>
+        <v>695787.3348918783</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695787.3348918785</v>
+        <v>695787.3348918784</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695787.3348918785</v>
+        <v>695787.3348918784</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695787.3348918785</v>
+        <v>695787.3348918783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695787.3348918783</v>
+        <v>695787.3348918782</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26323,37 @@
         <v>290813.7097406369</v>
       </c>
       <c r="F2" t="n">
+        <v>290813.7097406368</v>
+      </c>
+      <c r="G2" t="n">
         <v>290813.7097406369</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="I2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="J2" t="n">
         <v>290813.7097406368</v>
-      </c>
-      <c r="H2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="I2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="J2" t="n">
-        <v>290813.709740637</v>
       </c>
       <c r="K2" t="n">
         <v>290813.7097406369</v>
       </c>
       <c r="L2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="M2" t="n">
+        <v>290813.709740637</v>
+      </c>
+      <c r="N2" t="n">
         <v>290813.7097406367</v>
       </c>
-      <c r="M2" t="n">
-        <v>290813.7097406369</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>290813.7097406368</v>
+      </c>
+      <c r="P2" t="n">
         <v>290813.709740637</v>
-      </c>
-      <c r="O2" t="n">
-        <v>290813.7097406369</v>
-      </c>
-      <c r="P2" t="n">
-        <v>290813.7097406368</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58641.60449396486</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="C4" t="n">
-        <v>58641.60449396485</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="D4" t="n">
-        <v>58641.60449396486</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="E4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="F4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="G4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="H4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="I4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="J4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="K4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="L4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="M4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="N4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="O4" t="n">
-        <v>61613.73009995343</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="P4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348262</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>42221.72212544655</v>
       </c>
       <c r="J5" t="n">
-        <v>42221.72212544657</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="K5" t="n">
         <v>42221.72212544655</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4915.565004808617</v>
+        <v>-5026.543010016787</v>
       </c>
       <c r="C6" t="n">
-        <v>75853.86652673909</v>
+        <v>75742.88852153093</v>
       </c>
       <c r="D6" t="n">
-        <v>75853.86652673912</v>
+        <v>75742.88852153093</v>
       </c>
       <c r="E6" t="n">
-        <v>-158634.0852637158</v>
+        <v>-158750.201007245</v>
       </c>
       <c r="F6" t="n">
-        <v>186978.2575152369</v>
+        <v>186862.1417717076</v>
       </c>
       <c r="G6" t="n">
-        <v>186978.2575152367</v>
+        <v>186862.1417717077</v>
       </c>
       <c r="H6" t="n">
-        <v>186978.2575152368</v>
+        <v>186862.1417717077</v>
       </c>
       <c r="I6" t="n">
-        <v>186978.2575152368</v>
+        <v>186862.1417717077</v>
       </c>
       <c r="J6" t="n">
-        <v>123918.3149161307</v>
+        <v>123802.1991726013</v>
       </c>
       <c r="K6" t="n">
-        <v>186978.2575152369</v>
+        <v>186862.1417717077</v>
       </c>
       <c r="L6" t="n">
-        <v>186978.2575152367</v>
+        <v>186862.1417717077</v>
       </c>
       <c r="M6" t="n">
-        <v>100959.7236951609</v>
+        <v>100843.6079516318</v>
       </c>
       <c r="N6" t="n">
-        <v>186978.257515237</v>
+        <v>186862.1417717075</v>
       </c>
       <c r="O6" t="n">
-        <v>186978.2575152369</v>
+        <v>186862.1417717076</v>
       </c>
       <c r="P6" t="n">
-        <v>186978.2575152367</v>
+        <v>186862.1417717078</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062787</v>
@@ -26811,7 +26811,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205542</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="K4" t="n">
         <v>586.1874555205541</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,7 +31756,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31777,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31847,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32014,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32084,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,10 +35024,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35422,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,16 +35498,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848624</v>
       </c>
       <c r="L14" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35659,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,7 +35738,7 @@
         <v>300.3322866702078</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35975,13 +35975,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,7 +36209,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255823</v>
@@ -36218,7 +36218,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36689,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
@@ -36929,7 +36929,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093429</v>
@@ -37154,7 +37154,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803102</v>
       </c>
       <c r="N33" t="n">
         <v>516.8936174628016</v>
@@ -37163,10 +37163,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37631,10 +37631,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37868,16 +37868,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38032,7 +38032,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
         <v>121.0739155037674</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38111,10 +38111,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
